--- a/datacollection.xlsx
+++ b/datacollection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Desktop\COVID19 Mask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B271C271-61D8-4293-BCB8-94601E8F0912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD75DE0-30FD-4EAB-BC71-2F526308A035}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="4890" windowWidth="27465" windowHeight="12855" xr2:uid="{F92AAEF7-20EF-4D6F-8F86-4F5442FAE7E2}"/>
+    <workbookView xWindow="1110" yWindow="4080" windowWidth="27465" windowHeight="12855" xr2:uid="{F92AAEF7-20EF-4D6F-8F86-4F5442FAE7E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
   <si>
     <t xml:space="preserve">Mobility </t>
   </si>
@@ -51,9 +51,6 @@
     <t>countries/regions, sub-regions, and cities</t>
   </si>
   <si>
-    <t>counties</t>
-  </si>
-  <si>
     <t>Measures</t>
   </si>
   <si>
@@ -207,9 +204,6 @@
     <t>https://khn.org/news/as-coronavirus-spreads-widely-millions-of-older-americans-live-in-counties-with-no-icu-beds/</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/county-map.html</t>
   </si>
   <si>
@@ -256,13 +250,106 @@
   </si>
   <si>
     <t>In search for other controls - county level***  - reopening phases</t>
+  </si>
+  <si>
+    <t>https://www.countyhealthrankings.org/</t>
+  </si>
+  <si>
+    <t>US County Health Rankings</t>
+  </si>
+  <si>
+    <t>https://www.census.gov/acs/www/data/data-tables-and-tools/data-profiles/</t>
+  </si>
+  <si>
+    <t>CDC Community Health Assessment Data &amp; Benchmarks</t>
+  </si>
+  <si>
+    <t>A list of community-level indicators sources (incl. county health rankings). We may use it as a checklist to make sure that we have considered all the CDC-recommended data sources we need.</t>
+  </si>
+  <si>
+    <t>2018 latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015 latest </t>
+  </si>
+  <si>
+    <t>https://www.ahrq.gov/data/hcup/co-level-stats.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cdc.gov/socialdeterminants/data/index.htm </t>
+  </si>
+  <si>
+    <t>Sources for Data on Social Determinants of Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cdc.gov/publichealthgateway/cha/data.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ghdx.healthdata.org/record/ihme-data/united-states-infectious-disease-mortality-rates-county-1980-2014 </t>
+  </si>
+  <si>
+    <t>United States Infectious Disease Mortality Rates by County</t>
+  </si>
+  <si>
+    <t>1980-2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1980-2014</t>
+  </si>
+  <si>
+    <t>United States Chronic Respiratory Disease Mortality Rates by County</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCUPnet - inpatient stays, ambulatory surgery and services, and emergency department visits, yearly data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ghdx.healthdata.org/record/ihme-data/united-states-chronic-respiratory-disease-mortality-rates-county-1980-2014 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cdc.gov/brfss/ </t>
+  </si>
+  <si>
+    <t>Behavioral Risk Factor Surveillance System</t>
+  </si>
+  <si>
+    <t>A paper published in 2019 on JAMA used BRFSS and county health rankings to assess county-level public health performance: https://jamanetwork-com.ezaccess.libraries.psu.edu/journals/jamanetworkopen/fullarticle/2720072</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FY 2018 and 2019</t>
+  </si>
+  <si>
+    <t>checklist purpuses</t>
+  </si>
+  <si>
+    <t>U/e and Economic activity</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/lau/#data</t>
+  </si>
+  <si>
+    <t>county</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age sex race, Hispanic origin </t>
+  </si>
+  <si>
+    <t>https://www.census.gov/data/tables/time-series/demo/popest/2010s-counties-detail.html#par_textimage_1383669527</t>
+  </si>
+  <si>
+    <t>Census - SES characteristics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">county, individual county collection is needed, yearly data; employment status, occupation, industry,income, family income, family, etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">county, county collection provided but does not contain other info. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,16 +374,51 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF181818"/>
+      <sz val="11"/>
+      <color rgb="FF121212"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF121212"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF181818"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF121212"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -326,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -336,7 +458,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -347,7 +468,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -663,35 +815,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA43ED5-FC7F-48A4-94D7-1A07B7F9BA2E}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="68.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="73.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="79.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>67</v>
+      <c r="E1" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -699,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3">
         <v>43876</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
@@ -716,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3">
         <v>43843</v>
@@ -725,110 +877,191 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3">
         <v>43851</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="3">
         <v>43933</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>73</v>
+        <v>88</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>68</v>
+      <c r="B13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="20">
+        <v>43252</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -846,176 +1079,223 @@
     <hyperlink ref="E9" r:id="rId6" xr:uid="{3456CE7B-15F0-4698-9C7C-36589E25E6A0}"/>
     <hyperlink ref="E10" r:id="rId7" xr:uid="{55149E49-8818-420D-80A3-76DD775BEFBC}"/>
     <hyperlink ref="E7" r:id="rId8" xr:uid="{3DA649E9-88B4-4445-AF17-CAC478DBD141}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{01175646-F0F4-4ADA-BF79-5691A3CFF231}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{FCBFB982-8234-4CA1-9F56-FDA59EC7EBE2}"/>
+    <hyperlink ref="E13" r:id="rId11" display="http://ghdx.healthdata.org/record/ihme-data/united-states-infectious-disease-mortality-rates-county-1980-2014" xr:uid="{03A855D1-1178-4A6C-85AB-AA97DC61B357}"/>
+    <hyperlink ref="E14" r:id="rId12" display="http://ghdx.healthdata.org/record/ihme-data/united-states-chronic-respiratory-disease-mortality-rates-county-1980-2014" xr:uid="{E00AA5F5-09FA-47FB-AF57-61A2DE17795D}"/>
+    <hyperlink ref="E15" r:id="rId13" location="data" display="https://www.bls.gov/lau/ - data" xr:uid="{45F8F319-AECB-4FCF-81C3-251500D27D53}"/>
+    <hyperlink ref="E16" r:id="rId14" location="par_textimage_1383669527" display="par_textimage_1383669527" xr:uid="{06CE76E3-314F-43B1-942F-C21F569FFEC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B6D723-9586-4F1E-AFDB-2ADD05D090BA}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1"/>
-    <col min="2" max="2" width="65.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="65.85546875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>64</v>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1035,8 +1315,12 @@
     <hyperlink ref="C12" r:id="rId10" xr:uid="{56CC71C6-5DB4-4573-8CA5-B038475924AE}"/>
     <hyperlink ref="C13" r:id="rId11" xr:uid="{656F44B3-D9AD-4B28-AF3B-1DB11DDC49E9}"/>
     <hyperlink ref="C14" r:id="rId12" xr:uid="{76164FB9-989F-49FE-8CEB-3973FBE16E16}"/>
+    <hyperlink ref="C15" r:id="rId13" xr:uid="{9FC56BB6-C2C5-4BB5-AFA7-E3F735CC5318}"/>
+    <hyperlink ref="C17" r:id="rId14" display="https://www.cdc.gov/socialdeterminants/data/index.htm" xr:uid="{B884C695-18F6-4C66-A604-2895152BB4D0}"/>
+    <hyperlink ref="C16" r:id="rId15" display="https://www.cdc.gov/publichealthgateway/cha/data.html" xr:uid="{EE7B17A1-38D1-43B5-933D-ADB076A16843}"/>
+    <hyperlink ref="C18" r:id="rId16" display="https://www.cdc.gov/brfss/" xr:uid="{FCBCF59B-BBFD-472F-98C6-5813592FFDCE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId17"/>
 </worksheet>
 </file>